--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2015.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2015.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.006*"exchange" + 0.005*"foreign" + 0.004*"rate" + 0.003*"bank" + 0.003*"arrangement" + 0.003*"monetary" + 0.003*"currency" + 0.002*"market" + 0.002*"international" + 0.002*"fund"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"rate" + 0.001*"foreign" + 0.001*"bank" + 0.001*"monetary" + 0.001*"country" + 0.001*"arrangement" + 0.001*"transaction" + 0.001*"report" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.036*"exchange" + 0.019*"foreign" + 0.019*"rate" + 0.013*"bank" + 0.011*"currency" + 0.011*"country" + 0.011*"arrangement" + 0.010*"monetary" + 0.010*"market" + 0.009*"transaction"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"rate" + 0.002*"foreign" + 0.001*"currency" + 0.001*"arrangement" + 0.001*"bank" + 0.001*"country" + 0.001*"monetary" + 0.001*"market" + 0.001*"transaction"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"foreign" + 0.001*"arrangement" + 0.001*"country" + 0.001*"bank" + 0.001*"currency" + 0.001*"market" + 0.001*"transaction" + 0.001*"monetary"</t>
+    <t>0.056*"exchange" + 0.046*"rate" + 0.045*"arrangement" + 0.028*"article" + 0.019*"payment" + 0.019*"imf" + 0.014*"report" + 0.013*"country" + 0.013*"peg" + 0.012*"agreement"</t>
+  </si>
+  <si>
+    <t>0.052*"fund" + 0.045*"monetary" + 0.044*"international" + 0.028*"country" + 0.018*"oc" + 0.018*"tober" + 0.014*"member" + 0.010*"framework" + 0.010*"exchange" + 0.010*"transfer"</t>
+  </si>
+  <si>
+    <t>0.026*"measure" + 0.025*"capital" + 0.019*"investment" + 0.018*"transaction" + 0.018*"credit" + 0.017*"bank" + 0.016*"control" + 0.015*"direct" + 0.015*"institutional" + 0.015*"investor"</t>
+  </si>
+  <si>
+    <t>0.017*"eff" + 0.016*"ective" + 0.015*"nonresident" + 0.013*"account" + 0.013*"resident" + 0.013*"abroad" + 0.013*"include" + 0.012*"may" + 0.012*"capital" + 0.011*"reserve"</t>
+  </si>
+  <si>
+    <t>0.065*"exchange" + 0.049*"foreign" + 0.025*"currency" + 0.025*"bank" + 0.021*"rate" + 0.015*"market" + 0.010*"import" + 0.009*"central" + 0.009*"transaction" + 0.008*"requirement"</t>
   </si>
 </sst>
 </file>
